--- a/zero-io-excel/src/main/resources/excel-templates/user.xlsx
+++ b/zero-io-excel/src/main/resources/excel-templates/user.xlsx
@@ -22,7 +22,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t.name</t>
+    <t>{{ $fe: list t.name}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,10 +377,13 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
